--- a/spectroscopic_factors/excel/116Cd_d,p_117Cd_bite_2_spec_factors.xlsx
+++ b/spectroscopic_factors/excel/116Cd_d,p_117Cd_bite_2_spec_factors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ENERGY</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>SPECTROSCOPIC_FACTOR</t>
+  </si>
+  <si>
+    <t>ERROR</t>
   </si>
 </sst>
 </file>
@@ -380,13 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,8 +399,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -405,13 +411,16 @@
         <v>1222</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>0.02070388154698714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05936598391918613</v>
+      </c>
+      <c r="E2">
+        <v>0.003035493077078442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -424,8 +433,11 @@
       <c r="D3">
         <v>0.001488629564549792</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0.0005326809152579089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -433,13 +445,16 @@
         <v>1257</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>0.01592606256676202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.04806465453323013</v>
+      </c>
+      <c r="E4">
+        <v>0.002708960911056775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -452,8 +467,11 @@
       <c r="D5">
         <v>0.04036433381412403</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0.001911775804863956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -461,13 +479,16 @@
         <v>1317.043937608814</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>0.01170435764633139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01339031299261635</v>
+      </c>
+      <c r="E6">
+        <v>0.001508172562733018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -480,8 +501,11 @@
       <c r="D7">
         <v>0.01178569060100847</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>0.001176774733969529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -494,8 +518,11 @@
       <c r="D8">
         <v>0.03782973362001066</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>0.00186518307382544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -508,8 +535,11 @@
       <c r="D9">
         <v>0.007023749912468884</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>0.002112894099568819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -522,8 +552,11 @@
       <c r="D10">
         <v>0.009585676154232116</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>0.002449264765007386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -536,8 +569,11 @@
       <c r="D11">
         <v>0.01127809196645715</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>0.00261466787634065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -550,8 +586,11 @@
       <c r="D12">
         <v>0.0515690018978243</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>0.003501666092421833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -564,8 +603,11 @@
       <c r="D13">
         <v>0.05321212116585639</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>0.00439895220724949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -578,8 +620,11 @@
       <c r="D14">
         <v>0.002862574415674339</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>0.0006447551638369098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -592,8 +637,11 @@
       <c r="D15">
         <v>0.01061489961681472</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0.001541576703823349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -601,13 +649,16 @@
         <v>1682.510718698463</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0.008239776827799961</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.01572741592980416</v>
+      </c>
+      <c r="E16">
+        <v>0.001522266335368331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -620,8 +671,11 @@
       <c r="D17">
         <v>0.009258652181806135</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0.004903073700746497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -634,8 +688,11 @@
       <c r="D18">
         <v>0.003395164279459142</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0.0007796941141099332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -643,13 +700,16 @@
         <v>1763.505446394653</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.01117542402475309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.008673820530755825</v>
+      </c>
+      <c r="E19">
+        <v>0.001461840480067992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -657,13 +717,16 @@
         <v>1791.748218580141</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0.01694714232486408</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01461474403233252</v>
+      </c>
+      <c r="E20">
+        <v>0.001123036702029975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -671,13 +734,16 @@
         <v>1813.127687077064</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.006706364730149976</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.005752292219242671</v>
+      </c>
+      <c r="E21">
+        <v>0.0008842692873798057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -690,8 +756,11 @@
       <c r="D22">
         <v>0.08300869419127654</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>0.002141996245434148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -699,13 +768,16 @@
         <v>1880.787836939684</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.08111737173542628</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06435848202244433</v>
+      </c>
+      <c r="E23">
+        <v>0.001741532107087278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -718,8 +790,11 @@
       <c r="D24">
         <v>0.2134522650483264</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>0.003099782478848739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -732,8 +807,11 @@
       <c r="D25">
         <v>0.04059920257333815</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>0.001743835996372207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -741,13 +819,16 @@
         <v>2023.772546813318</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>0.06657352962528523</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.03374938964761337</v>
+      </c>
+      <c r="E26">
+        <v>0.001654950577338617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -760,8 +841,11 @@
       <c r="D27">
         <v>0.01966188957209503</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0.001304340853869849</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -774,8 +858,11 @@
       <c r="D28">
         <v>0.06615520120800006</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>0.002070416134208245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -788,8 +875,11 @@
       <c r="D29">
         <v>0.0893192847289216</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>0.003851816244631217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -797,13 +887,16 @@
         <v>2139.92127208803</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0.09198676347391112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.07163892755319588</v>
+      </c>
+      <c r="E30">
+        <v>0.00383757027733713</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -816,8 +909,11 @@
       <c r="D31">
         <v>0.01982164255915413</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>0.001886740493001429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -830,8 +926,11 @@
       <c r="D32">
         <v>0.2319110614053257</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>0.004455258641850102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -844,8 +943,11 @@
       <c r="D33">
         <v>0.02514654160364252</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>0.008940562847279374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -853,13 +955,16 @@
         <v>2206.983121478583</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>0.04320275913614207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.02677773877005402</v>
+      </c>
+      <c r="E34">
+        <v>0.006987578924655492</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -872,8 +977,11 @@
       <c r="D35">
         <v>0.1720638246895806</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0.003410544974445649</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -886,8 +994,11 @@
       <c r="D36">
         <v>0.01492680763126938</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>0.002339332834741048</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -900,8 +1011,11 @@
       <c r="D37">
         <v>0.01315273679670204</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0.001012704540073741</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -914,8 +1028,11 @@
       <c r="D38">
         <v>0.01540334876412954</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0.001801517900222171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -928,8 +1045,11 @@
       <c r="D39">
         <v>0.009503742673139106</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>0.001475055964619051</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -942,8 +1062,11 @@
       <c r="D40">
         <v>0.009872558380442114</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>0.001466410306524519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -956,8 +1079,11 @@
       <c r="D41">
         <v>0.003753287349912698</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>0.002542866581186163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -965,13 +1091,16 @@
         <v>2410.242626499789</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>0.005280580959234691</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.006157213440128234</v>
+      </c>
+      <c r="E42">
+        <v>0.002397460528171445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -984,8 +1113,11 @@
       <c r="D43">
         <v>0.01424577719270922</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>0.001018322376843115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -993,13 +1125,16 @@
         <v>2432.242029438034</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>0.003359610428048686</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.005819961319551851</v>
+      </c>
+      <c r="E44">
+        <v>0.0009469795172086425</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1007,13 +1142,16 @@
         <v>2454.916845899374</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>0.0229918079557914</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0.0269225597187095</v>
+      </c>
+      <c r="E45">
+        <v>0.001863736576094903</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1021,13 +1159,16 @@
         <v>2461.621164024265</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>0.01299845471365054</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01410576666286996</v>
+      </c>
+      <c r="E46">
+        <v>0.001100481841451729</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1040,8 +1181,11 @@
       <c r="D47">
         <v>0.01810950692550556</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>0.001227981137154653</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1049,80 +1193,115 @@
         <v>2491.878218119664</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0.009110894868664498</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.005750758309528895</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2511.967542799203</v>
+        <v>2491.878218119664</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>0.008522098053666534</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>5.516487026791419e-15</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2521.402026059814</v>
+        <v>2511.967542799203</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>0.04104813711274746</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0100360798260475</v>
+      </c>
+      <c r="E50">
+        <v>0.001343369766402542</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2532.743580491942</v>
+        <v>2521.402026059814</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>0.009188372424004214</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04867836555897274</v>
+      </c>
+      <c r="E51">
+        <v>0.002802644367327954</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2542.951706183542</v>
+        <v>2532.743580491942</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52">
-        <v>0.02919350932781831</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.01096972208564659</v>
+      </c>
+      <c r="E52">
+        <v>0.001281034991850073</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
+        <v>2542.951706183542</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>0.02919350932781831</v>
+      </c>
+      <c r="E53">
+        <v>0.001775660183078727</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
         <v>2552.6607271736</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>0.01731207601461708</v>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>0.02048890572107748</v>
+      </c>
+      <c r="E54">
+        <v>0.001545096733683355</v>
       </c>
     </row>
   </sheetData>

--- a/spectroscopic_factors/excel/116Cd_d,p_117Cd_bite_2_spec_factors.xlsx
+++ b/spectroscopic_factors/excel/116Cd_d,p_117Cd_bite_2_spec_factors.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,10 +414,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.005454106467147106</v>
+        <v>0.01654890364994536</v>
       </c>
       <c r="E2">
-        <v>0.0007486028484319558</v>
+        <v>0.002249365544652767</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,10 +431,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.0007832767727083767</v>
+        <v>0.0005321444568159682</v>
       </c>
       <c r="E3">
-        <v>0.0001380422557653709</v>
+        <v>0.0001900515917199887</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0028291725455129</v>
+        <v>0.01203606009123783</v>
       </c>
       <c r="E4">
-        <v>0.0005871867547290923</v>
+        <v>0.00174206132899495</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,10 +465,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.01564735672377216</v>
+        <v>0.01442844011991008</v>
       </c>
       <c r="E5">
-        <v>0.000366958604708453</v>
+        <v>0.0006035425932511405</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1318.969573676867</v>
+        <v>1316.961967096084</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.001757493614954557</v>
+        <v>0.004580565564309971</v>
       </c>
       <c r="E6">
-        <v>0.0006390885872562025</v>
+        <v>0.001263604293602751</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -499,10 +499,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>0.00293017587640514</v>
+        <v>0.004212753520500596</v>
       </c>
       <c r="E7">
-        <v>0.0004671294875428483</v>
+        <v>0.0004100910506681996</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -516,10 +516,10 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>0.008470752096080385</v>
+        <v>0.01352227287378613</v>
       </c>
       <c r="E8">
-        <v>0.0007200139281668326</v>
+        <v>0.0005952032076494585</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1406.358129844283</v>
+        <v>1423.282918228582</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.002096243779403678</v>
+        <v>0.002279683569842992</v>
       </c>
       <c r="E9">
-        <v>0.000432555230805019</v>
+        <v>0.0004844350193860269</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1423.026334582866</v>
+        <v>1440.359726841536</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.00220754120263621</v>
+        <v>0.002539610150580014</v>
       </c>
       <c r="E10">
-        <v>0.0004691744474395173</v>
+        <v>0.0005118901462955945</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1440.487781473229</v>
+        <v>1476</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>0.00245947377709846</v>
+        <v>0.01843077524525283</v>
       </c>
       <c r="E11">
-        <v>0.0004957618451185853</v>
+        <v>0.001182626249695394</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1476</v>
+        <v>1484.351379665093</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>0.01055459473897474</v>
+        <v>0.03066038090138969</v>
       </c>
       <c r="E12">
-        <v>0.001113179913876242</v>
+        <v>0.002647382286666178</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1484.326295717179</v>
+        <v>1648.526094901215</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>0.06511069847731556</v>
+        <v>0.0010229163193118</v>
       </c>
       <c r="E13">
-        <v>0.02741503093781708</v>
+        <v>0.0002292743474319551</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1648.62382511032</v>
+        <v>1672.06961683155</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>0.0008331097749821261</v>
+        <v>0.003792593738153586</v>
       </c>
       <c r="E14">
-        <v>0.0002777032583273754</v>
+        <v>0.0005443074346424128</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1672.435731252676</v>
+        <v>1682.013801340207</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.002209580288383848</v>
+        <v>0.005524460759057719</v>
       </c>
       <c r="E15">
-        <v>0.0004340246995039701</v>
+        <v>0.0005288007084618736</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1682.51201347633</v>
+        <v>1692.004774397466</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>0.005005915010937896</v>
+        <v>0.003308365968041293</v>
       </c>
       <c r="E16">
-        <v>0.000465325646283381</v>
+        <v>0.001750458184148833</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1691.871220397984</v>
+        <v>1743.34190550635</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>0.004587091612583388</v>
+        <v>0.001213154131293051</v>
       </c>
       <c r="E17">
-        <v>0.0004393118451067189</v>
+        <v>0.0002772923728669831</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1743.648059367572</v>
+        <v>1844.463090411462</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0.0006597483657767043</v>
+        <v>0.01324288828617537</v>
       </c>
       <c r="E18">
-        <v>0.0002716610917904077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1763.404357115723</v>
+        <v>1844.463090411462</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>0.002462303288852287</v>
+        <v>0.01653707255420836</v>
       </c>
       <c r="E19">
-        <v>0.0004233485246560646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1791.798574864113</v>
+        <v>1880.855063637229</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>0.005893836449118651</v>
+        <v>0.0180723617287715</v>
       </c>
       <c r="E20">
-        <v>0.0004753093910579558</v>
+        <v>0.0004512474709394471</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1813.102149661652</v>
+        <v>1943</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.002198003229466123</v>
+        <v>1.399646823909309e-20</v>
       </c>
       <c r="E21">
-        <v>0.0003781510932414835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1844.487460251801</v>
+        <v>1943</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>0.01222926705676618</v>
+        <v>0.107601058578867</v>
       </c>
       <c r="E22">
-        <v>0.0003147638672713093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1880.884050909783</v>
+        <v>2005.376850816456</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01742316660745728</v>
+        <v>0.0217387002767945</v>
       </c>
       <c r="E23">
-        <v>0.0004351135133328236</v>
+        <v>0.002329146458227983</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1943</v>
+        <v>2023.740959505003</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08336912255896407</v>
+        <v>0.03537527425185113</v>
       </c>
       <c r="E24">
-        <v>0.0009670283265083633</v>
+        <v>0.002855403302840001</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2005.501480653165</v>
+        <v>2040.602289229372</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02351224764337977</v>
+        <v>0.00777583124659088</v>
       </c>
       <c r="E25">
-        <v>0.001410734858602786</v>
+        <v>0.001710682874249994</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2023.792767604002</v>
+        <v>2069.548786927769</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.03825057258610149</v>
+        <v>0.02603643801600719</v>
       </c>
       <c r="E26">
-        <v>0.001672156178627388</v>
+        <v>0.002698899062634892</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2042.281831383498</v>
+        <v>2131</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.01008545453284925</v>
+        <v>0.1007472841569682</v>
       </c>
       <c r="E27">
-        <v>0.001045124822056917</v>
+        <v>0.00624789359112981</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2069.902349587287</v>
+        <v>2139.901811344992</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0.02473029211514559</v>
+        <v>0.02837000420202299</v>
       </c>
       <c r="E28">
-        <v>0.0007132417357511156</v>
+        <v>0.004437766020428178</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2131</v>
+        <v>1934.30317654436</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>0.1032894435169309</v>
+        <v>0.02278408802608079</v>
       </c>
       <c r="E29">
-        <v>0.00381778702619542</v>
+        <v>0.002448225345049951</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2140.018905153618</v>
+        <v>2183</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0.02482369519704929</v>
+        <v>0.02397241532204131</v>
       </c>
       <c r="E30">
-        <v>0.001294290746652406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1980.122037523234</v>
+        <v>2183</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>0.006239891483638195</v>
+        <v>0.02318956303588307</v>
       </c>
       <c r="E31">
-        <v>0.0006265413806641642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2183</v>
+        <v>2201.968387101374</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0.06175679692850032</v>
+        <v>0.01957080465753616</v>
       </c>
       <c r="E32">
-        <v>0.0009734803434120928</v>
+        <v>0.002838310449775922</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2201.915439675086</v>
+        <v>2207.71350700567</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>0.009374858561186281</v>
+        <v>0.0169700664309912</v>
       </c>
       <c r="E33">
-        <v>0.008013147261796095</v>
+        <v>0.003570376842864682</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2207.720288166611</v>
+        <v>2232</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0.008899361067785064</v>
+        <v>0.05057059001395432</v>
       </c>
       <c r="E34">
-        <v>0.001731934461669283</v>
+        <v>0.0009042413536712422</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2232</v>
+        <v>2273.578833093549</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0.04619535602894913</v>
+        <v>0.001930560522152485</v>
       </c>
       <c r="E35">
-        <v>0.0007822750386460419</v>
+        <v>0.0003210257614041017</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2273.459192689243</v>
+        <v>2299.870800905546</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>0.0004198316555425503</v>
+        <v>0.004645426430644592</v>
       </c>
       <c r="E36">
-        <v>0.0007871843541422819</v>
+        <v>0.0003687385315539132</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2299.716346741353</v>
+        <v>2413.274643654517</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>0.004115616693078578</v>
+        <v>0.002700983249740335</v>
       </c>
       <c r="E37">
-        <v>0.0003154272861562936</v>
+        <v>0.0007528977333109513</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2317.081442636319</v>
+        <v>2419.342384365287</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>0.004350599458381645</v>
+        <v>0.008898478397206368</v>
       </c>
       <c r="E38">
-        <v>0.0005066963224621193</v>
+        <v>0.0006034180975013629</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2349.064752944832</v>
+        <v>2432.48629598985</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>0.002686640824399448</v>
+        <v>0.002089142602532552</v>
       </c>
       <c r="E39">
-        <v>0.0004159959986166887</v>
+        <v>0.0003043698656391923</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2371.12264564982</v>
+        <v>2452.752171577677</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>0.002792627926682495</v>
+        <v>0.02665842466937973</v>
       </c>
       <c r="E40">
-        <v>0.0004137226558048141</v>
+        <v>0.001125521300370366</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2394.980625091021</v>
+        <v>2466.124342510111</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>0.001062451585972507</v>
+        <v>0.005951846860492331</v>
       </c>
       <c r="E41">
-        <v>0.0007197252679168595</v>
+        <v>0.0005001594671462294</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2411.595500737076</v>
+        <v>2478.166239524158</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>0.0009267587581690467</v>
+        <v>0.006306926592741646</v>
       </c>
       <c r="E42">
-        <v>0.0007281675957042508</v>
+        <v>0.0004048095903461701</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2418.396962561447</v>
+        <v>2494.039958224013</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0.005102161240264058</v>
+        <v>0.0009677315022444048</v>
       </c>
       <c r="E43">
-        <v>0.0003459218936227988</v>
+        <v>0.001129020085951805</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2432.639249282935</v>
+        <v>2514.257468531217</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>0.0020833785624621</v>
+        <v>0.003029462879641493</v>
       </c>
       <c r="E44">
-        <v>0.0002883214354940138</v>
+        <v>0.0004095390246803904</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2454.964948043112</v>
+        <v>2522.834832705841</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>0.008043668148150511</v>
+        <v>0.0167442510284711</v>
       </c>
       <c r="E45">
-        <v>0.0005331295011137726</v>
+        <v>0.0009073335307082051</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2462.702318332082</v>
+        <v>2532.957133048545</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>0.002614882401107125</v>
+        <v>0.009265629304001955</v>
       </c>
       <c r="E46">
-        <v>0.0005883485402491031</v>
+        <v>0.002438323501053147</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2477.749949201777</v>
+        <v>2544.746580038972</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>0.005961425161645813</v>
+        <v>0.01030030361599892</v>
       </c>
       <c r="E47">
-        <v>0.0003744851138941067</v>
+        <v>0.0005973739577938043</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,101 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2492.960014189648</v>
+        <v>2554.519429307579</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>0.004337123708366042</v>
+        <v>0.006852808902499502</v>
       </c>
       <c r="E48">
-        <v>0.0004709998597320589</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>2513.27159671248</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>0.002801997978542391</v>
-      </c>
-      <c r="E49">
-        <v>0.000376348141862148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>2522.298249575187</v>
-      </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50">
-        <v>0.01764643094283484</v>
-      </c>
-      <c r="E50">
-        <v>0.001285501591862141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>2532.926868461426</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>0.003508596904682636</v>
-      </c>
-      <c r="E51">
-        <v>0.0003979982019060569</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>2543.988325669481</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>0.009675135344889785</v>
-      </c>
-      <c r="E52">
-        <v>0.0005527760968825908</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>2553.801861676271</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>0.006094314067863186</v>
-      </c>
-      <c r="E53">
-        <v>0.0004641285171794059</v>
+        <v>0.0005242383533031732</v>
       </c>
     </row>
   </sheetData>
